--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/10/seed1/result_data_RandomForest.xlsx
@@ -502,7 +502,7 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.01939999999999</v>
+        <v>-14.26890000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.64499999999999</v>
+        <v>-12.05129999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -706,7 +706,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.7741</v>
+        <v>-11.7317</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
